--- a/Excel/Atualização/Exercicios/Exercícios.xlsx
+++ b/Excel/Atualização/Exercicios/Exercícios.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">PDF de exercícios do cursinho_atualizado</t>
+    <t xml:space="preserve">Exercícios do livro de matemática</t>
   </si>
   <si>
-    <t xml:space="preserve">Questões da página 97_atualizado</t>
+    <t xml:space="preserve">Exercício01_atualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercício04_atualizado</t>
   </si>
 </sst>
 </file>
@@ -101,13 +104,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -131,45 +138,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>157047</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="2" t="n">
+        <v>158064</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>39</v>
+      <c r="C1" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>157048</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="n">
+        <v>163070</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>45</v>
+      <c r="C2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>163073</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
